--- a/Code/Results/Cases/Case_0_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_69/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.888492944830816</v>
+        <v>10.52466335784678</v>
       </c>
       <c r="D2">
-        <v>4.712466048050602</v>
+        <v>4.891646116629243</v>
       </c>
       <c r="E2">
-        <v>8.245431052117176</v>
+        <v>12.91650814749353</v>
       </c>
       <c r="F2">
-        <v>17.14664686027011</v>
+        <v>23.77289540029187</v>
       </c>
       <c r="G2">
-        <v>21.15999272159686</v>
+        <v>27.89291468686337</v>
       </c>
       <c r="H2">
-        <v>8.309688205782614</v>
+        <v>14.08116195337141</v>
       </c>
       <c r="I2">
-        <v>14.65403104910235</v>
+        <v>22.59315978985907</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.32633704130454</v>
+        <v>12.00938450003745</v>
       </c>
       <c r="L2">
-        <v>5.518738733362945</v>
+        <v>9.621641979521394</v>
       </c>
       <c r="M2">
-        <v>13.94916461231892</v>
+        <v>15.50014742433758</v>
       </c>
       <c r="N2">
-        <v>12.3559393944273</v>
+        <v>17.41218633433042</v>
       </c>
       <c r="O2">
-        <v>13.53491482625929</v>
+        <v>21.31720966075225</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.611374016498326</v>
+        <v>10.49721249161125</v>
       </c>
       <c r="D3">
-        <v>4.533994302490569</v>
+        <v>4.829468571961828</v>
       </c>
       <c r="E3">
-        <v>8.134831741646442</v>
+        <v>12.93429230434142</v>
       </c>
       <c r="F3">
-        <v>16.73749967703552</v>
+        <v>23.79467360175473</v>
       </c>
       <c r="G3">
-        <v>20.60191721023077</v>
+        <v>27.92403406839404</v>
       </c>
       <c r="H3">
-        <v>8.334400232078044</v>
+        <v>14.12517015780638</v>
       </c>
       <c r="I3">
-        <v>14.49031282021595</v>
+        <v>22.64627156695885</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.26407529289045</v>
+        <v>11.58244689848209</v>
       </c>
       <c r="L3">
-        <v>5.54606962865583</v>
+        <v>9.646383559982615</v>
       </c>
       <c r="M3">
-        <v>13.18215412755816</v>
+        <v>15.3341072183209</v>
       </c>
       <c r="N3">
-        <v>12.40416883287686</v>
+        <v>17.44062827374131</v>
       </c>
       <c r="O3">
-        <v>13.44811971458131</v>
+        <v>21.38147067390466</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.43999181101688</v>
+        <v>10.482307526135</v>
       </c>
       <c r="D4">
-        <v>4.420188796887385</v>
+        <v>4.790333010745694</v>
       </c>
       <c r="E4">
-        <v>8.071256054662749</v>
+        <v>12.94747906818017</v>
       </c>
       <c r="F4">
-        <v>16.49786684023356</v>
+        <v>23.81461402007158</v>
       </c>
       <c r="G4">
-        <v>20.27778073368624</v>
+        <v>27.95265079953594</v>
       </c>
       <c r="H4">
-        <v>8.355350531249508</v>
+        <v>14.15452310439193</v>
       </c>
       <c r="I4">
-        <v>14.40162628729523</v>
+        <v>22.68392084557971</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.57459434518812</v>
+        <v>11.31273934784887</v>
       </c>
       <c r="L4">
-        <v>5.565386508226866</v>
+        <v>9.662731065436111</v>
       </c>
       <c r="M4">
-        <v>12.70499691709816</v>
+        <v>15.2331823697794</v>
       </c>
       <c r="N4">
-        <v>12.43731077982038</v>
+        <v>17.4597610181148</v>
       </c>
       <c r="O4">
-        <v>13.40726221228542</v>
+        <v>21.42572757055265</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.369951370620625</v>
+        <v>10.47672875231164</v>
       </c>
       <c r="D5">
-        <v>4.372789642229685</v>
+        <v>4.774152602589344</v>
       </c>
       <c r="E5">
-        <v>8.04644378780236</v>
+        <v>12.95342288231462</v>
       </c>
       <c r="F5">
-        <v>16.40321188283999</v>
+        <v>23.82438933386036</v>
       </c>
       <c r="G5">
-        <v>20.1504555587609</v>
+        <v>27.96669646489411</v>
       </c>
       <c r="H5">
-        <v>8.365290174409775</v>
+        <v>14.16707075910436</v>
       </c>
       <c r="I5">
-        <v>14.36841694005747</v>
+        <v>22.70052785841297</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.28429580334454</v>
+        <v>11.20108452868128</v>
       </c>
       <c r="L5">
-        <v>5.573879886363687</v>
+        <v>9.66968378806164</v>
       </c>
       <c r="M5">
-        <v>12.50592629705783</v>
+        <v>15.19235191944257</v>
       </c>
       <c r="N5">
-        <v>12.45168557889239</v>
+        <v>17.4679782474775</v>
       </c>
       <c r="O5">
-        <v>13.39364967302533</v>
+        <v>21.44496701602618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.358312412301664</v>
+        <v>10.47583243611702</v>
       </c>
       <c r="D6">
-        <v>4.364858547503727</v>
+        <v>4.771452081116545</v>
       </c>
       <c r="E6">
-        <v>8.04238999669645</v>
+        <v>12.95444427813117</v>
       </c>
       <c r="F6">
-        <v>16.38767777885404</v>
+        <v>23.8261120550749</v>
       </c>
       <c r="G6">
-        <v>20.12960363801178</v>
+        <v>27.9691724937095</v>
       </c>
       <c r="H6">
-        <v>8.367023872856315</v>
+        <v>14.16918967882703</v>
       </c>
       <c r="I6">
-        <v>14.3630780820109</v>
+        <v>22.70336174762009</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.23552991285519</v>
+        <v>11.18244368706256</v>
       </c>
       <c r="L6">
-        <v>5.57532729038903</v>
+        <v>9.670855865080798</v>
       </c>
       <c r="M6">
-        <v>12.4725977554786</v>
+        <v>15.18559115545239</v>
       </c>
       <c r="N6">
-        <v>12.45412448617871</v>
+        <v>17.4693681294929</v>
       </c>
       <c r="O6">
-        <v>13.39157000714864</v>
+        <v>21.44823437254957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.439047884723303</v>
+        <v>10.48223027812724</v>
       </c>
       <c r="D7">
-        <v>4.419553639420771</v>
+        <v>4.790115725330892</v>
       </c>
       <c r="E7">
-        <v>8.070916987255389</v>
+        <v>12.94755692031872</v>
       </c>
       <c r="F7">
-        <v>16.49657805077647</v>
+        <v>23.81473917855493</v>
       </c>
       <c r="G7">
-        <v>20.27604417303521</v>
+        <v>27.95283058164085</v>
       </c>
       <c r="H7">
-        <v>8.355478969369655</v>
+        <v>14.15468995372257</v>
       </c>
       <c r="I7">
-        <v>14.40116661299971</v>
+        <v>22.68413969640591</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.57071699042199</v>
+        <v>11.31124038736671</v>
       </c>
       <c r="L7">
-        <v>5.565498556829499</v>
+        <v>9.662823653742285</v>
       </c>
       <c r="M7">
-        <v>12.70233062804091</v>
+        <v>15.23263046053361</v>
       </c>
       <c r="N7">
-        <v>12.43750114741181</v>
+        <v>17.45987013507124</v>
       </c>
       <c r="O7">
-        <v>13.40706645472285</v>
+        <v>21.42598216754453</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.793260104002451</v>
+        <v>10.51479658416424</v>
       </c>
       <c r="D8">
-        <v>4.651827593148725</v>
+        <v>4.870411292444039</v>
       </c>
       <c r="E8">
-        <v>8.206401535800349</v>
+        <v>12.92216959117151</v>
       </c>
       <c r="F8">
-        <v>17.0032219170397</v>
+        <v>23.77904012166252</v>
       </c>
       <c r="G8">
-        <v>20.96379259617748</v>
+        <v>27.90166721575271</v>
       </c>
       <c r="H8">
-        <v>8.316979360377621</v>
+        <v>14.09585188969384</v>
       </c>
       <c r="I8">
-        <v>14.59509967751056</v>
+        <v>22.61042567574009</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.96781666737383</v>
+        <v>11.86383541840723</v>
       </c>
       <c r="L8">
-        <v>5.527626366896984</v>
+        <v>9.629933100085966</v>
       </c>
       <c r="M8">
-        <v>13.67496599516541</v>
+        <v>15.44270802562152</v>
       </c>
       <c r="N8">
-        <v>12.37182526369844</v>
+        <v>17.42164709214461</v>
       </c>
       <c r="O8">
-        <v>13.50235523897484</v>
+        <v>21.33836896507698</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.473796087645386</v>
+        <v>10.59390175427858</v>
       </c>
       <c r="D9">
-        <v>5.072329063554242</v>
+        <v>5.019901771545714</v>
       </c>
       <c r="E9">
-        <v>8.506080341508293</v>
+        <v>12.89037122430809</v>
       </c>
       <c r="F9">
-        <v>18.08457134036875</v>
+        <v>23.76121669521246</v>
       </c>
       <c r="G9">
-        <v>22.45400345717458</v>
+        <v>27.87703132899452</v>
       </c>
       <c r="H9">
-        <v>8.289603797038774</v>
+        <v>13.99898241660317</v>
       </c>
       <c r="I9">
-        <v>15.070905545403</v>
+        <v>22.50594529229887</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.41121364355238</v>
+        <v>12.88137385761588</v>
       </c>
       <c r="L9">
-        <v>5.474223363897252</v>
+        <v>9.574595360273474</v>
       </c>
       <c r="M9">
-        <v>15.68665480130536</v>
+        <v>15.86104221844941</v>
       </c>
       <c r="N9">
-        <v>12.27189894945387</v>
+        <v>17.35990518478079</v>
       </c>
       <c r="O9">
-        <v>13.79150934544147</v>
+        <v>21.20476345246564</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.960112278026594</v>
+        <v>10.66097790777072</v>
       </c>
       <c r="D10">
-        <v>5.358290321757442</v>
+        <v>5.124405649927796</v>
       </c>
       <c r="E10">
-        <v>8.746321705283925</v>
+        <v>12.87796373176681</v>
       </c>
       <c r="F10">
-        <v>18.92682010825812</v>
+        <v>23.77996548976623</v>
       </c>
       <c r="G10">
-        <v>23.62722809184855</v>
+        <v>27.90530075579042</v>
       </c>
       <c r="H10">
-        <v>8.301983402896834</v>
+        <v>13.93911168773473</v>
       </c>
       <c r="I10">
-        <v>15.4802766462873</v>
+        <v>22.45372859235041</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.02568567665102</v>
+        <v>13.58157689103201</v>
       </c>
       <c r="L10">
-        <v>5.448774869254283</v>
+        <v>9.539506207542777</v>
       </c>
       <c r="M10">
-        <v>17.03189935536495</v>
+        <v>16.1699185653233</v>
       </c>
       <c r="N10">
-        <v>12.21734226234776</v>
+        <v>17.32255657418909</v>
       </c>
       <c r="O10">
-        <v>14.07069776540722</v>
+        <v>21.13004218513985</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.177500619825892</v>
+        <v>10.69335758755514</v>
       </c>
       <c r="D11">
-        <v>5.483125255445756</v>
+        <v>5.170696836608597</v>
       </c>
       <c r="E11">
-        <v>8.8597989014823</v>
+        <v>12.87469314243035</v>
       </c>
       <c r="F11">
-        <v>19.31913351126466</v>
+        <v>23.79539607897403</v>
       </c>
       <c r="G11">
-        <v>24.1762500924736</v>
+        <v>27.92824053869426</v>
       </c>
       <c r="H11">
-        <v>8.315352071343817</v>
+        <v>13.91433132793281</v>
       </c>
       <c r="I11">
-        <v>15.67967468661887</v>
+        <v>22.43532258306356</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.72111599147467</v>
+        <v>13.88860513967742</v>
       </c>
       <c r="L11">
-        <v>5.440434623693378</v>
+        <v>9.524748594381991</v>
       </c>
       <c r="M11">
-        <v>17.61150978137352</v>
+        <v>16.310268235385</v>
       </c>
       <c r="N11">
-        <v>12.19691389215342</v>
+        <v>17.30729683350597</v>
       </c>
       <c r="O11">
-        <v>14.2129713000217</v>
+        <v>21.10116739299875</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.259207250344446</v>
+        <v>10.70587991657755</v>
       </c>
       <c r="D12">
-        <v>5.529624441509783</v>
+        <v>5.188039121814883</v>
       </c>
       <c r="E12">
-        <v>8.90335626196584</v>
+        <v>12.87379530523187</v>
       </c>
       <c r="F12">
-        <v>19.46891400468792</v>
+        <v>23.80222883741178</v>
       </c>
       <c r="G12">
-        <v>24.38621534242639</v>
+        <v>27.93837448875182</v>
       </c>
       <c r="H12">
-        <v>8.321582959936194</v>
+        <v>13.90530094499</v>
       </c>
       <c r="I12">
-        <v>15.75708089662056</v>
+        <v>22.42912270661884</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.97887398561406</v>
+        <v>14.00312989060431</v>
       </c>
       <c r="L12">
-        <v>5.437762808299961</v>
+        <v>9.519333228659745</v>
       </c>
       <c r="M12">
-        <v>17.82637812366908</v>
+        <v>16.36335096919728</v>
       </c>
       <c r="N12">
-        <v>12.18983558092711</v>
+        <v>17.30176646288933</v>
       </c>
       <c r="O12">
-        <v>14.26909388156881</v>
+        <v>21.09097099309565</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.241638437420201</v>
+        <v>10.70317153167761</v>
       </c>
       <c r="D13">
-        <v>5.519644648065192</v>
+        <v>5.184312594520231</v>
       </c>
       <c r="E13">
-        <v>8.893949606668256</v>
+        <v>12.87397353156841</v>
       </c>
       <c r="F13">
-        <v>19.43660332933305</v>
+        <v>23.80071332858346</v>
       </c>
       <c r="G13">
-        <v>24.34090594248805</v>
+        <v>27.93612765603498</v>
       </c>
       <c r="H13">
-        <v>8.320188171133157</v>
+        <v>13.90723007639628</v>
       </c>
       <c r="I13">
-        <v>15.74032562928016</v>
+        <v>22.43042369748801</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.92360922792203</v>
+        <v>13.97854359664792</v>
       </c>
       <c r="L13">
-        <v>5.438316252719138</v>
+        <v>9.520491832539356</v>
       </c>
       <c r="M13">
-        <v>17.78030716739947</v>
+        <v>16.3519221828081</v>
       </c>
       <c r="N13">
-        <v>12.19133034852531</v>
+        <v>17.30294650056604</v>
       </c>
       <c r="O13">
-        <v>14.25690622298685</v>
+        <v>21.093134122009</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.184235290718979</v>
+        <v>10.6943826238279</v>
       </c>
       <c r="D14">
-        <v>5.486966357867556</v>
+        <v>5.172127391210435</v>
       </c>
       <c r="E14">
-        <v>8.863370742457374</v>
+        <v>12.87461245373931</v>
       </c>
       <c r="F14">
-        <v>19.33143213204118</v>
+        <v>23.79593840289729</v>
       </c>
       <c r="G14">
-        <v>24.19348348470579</v>
+        <v>27.92904528184711</v>
       </c>
       <c r="H14">
-        <v>8.315840953130675</v>
+        <v>13.91358130821502</v>
       </c>
       <c r="I14">
-        <v>15.6860048855423</v>
+        <v>22.43479707684194</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.74243370761975</v>
+        <v>13.89806249371398</v>
       </c>
       <c r="L14">
-        <v>5.440204939159178</v>
+        <v>9.524299602508824</v>
       </c>
       <c r="M14">
-        <v>17.62927946375757</v>
+        <v>16.31463691526716</v>
       </c>
       <c r="N14">
-        <v>12.19631822345606</v>
+        <v>17.30683687682188</v>
       </c>
       <c r="O14">
-        <v>14.21754324556574</v>
+        <v>21.10031372977041</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.148992627457089</v>
+        <v>10.68903290392849</v>
       </c>
       <c r="D15">
-        <v>5.4668487988291</v>
+        <v>5.164639002693479</v>
       </c>
       <c r="E15">
-        <v>8.844716127308656</v>
+        <v>12.87504815429512</v>
       </c>
       <c r="F15">
-        <v>19.26716780462796</v>
+        <v>23.79314238457747</v>
       </c>
       <c r="G15">
-        <v>24.10344761390929</v>
+        <v>27.92489548368283</v>
       </c>
       <c r="H15">
-        <v>8.313331980469464</v>
+        <v>13.91751765470897</v>
       </c>
       <c r="I15">
-        <v>15.652979147885</v>
+        <v>22.43757621202204</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.63073172027994</v>
+        <v>13.84853648379106</v>
       </c>
       <c r="L15">
-        <v>5.441425803211348</v>
+        <v>9.526654498214285</v>
       </c>
       <c r="M15">
-        <v>17.53617036643399</v>
+        <v>16.29178897057372</v>
       </c>
       <c r="N15">
-        <v>12.19945986459104</v>
+        <v>17.30925214309209</v>
       </c>
       <c r="O15">
-        <v>14.19372625804873</v>
+        <v>21.10480759757263</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.945822709039451</v>
+        <v>10.65889874035339</v>
       </c>
       <c r="D16">
-        <v>5.35002479437441</v>
+        <v>5.121354630393463</v>
       </c>
       <c r="E16">
-        <v>8.738988613029743</v>
+        <v>12.87822518297599</v>
       </c>
       <c r="F16">
-        <v>18.90135742778617</v>
+        <v>23.77909571748006</v>
       </c>
       <c r="G16">
-        <v>23.59164421098698</v>
+        <v>27.90400426488951</v>
       </c>
       <c r="H16">
-        <v>8.301270199495059</v>
+        <v>13.94078057690104</v>
       </c>
       <c r="I16">
-        <v>15.46751106370732</v>
+        <v>22.45503917762787</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.97945459383059</v>
+        <v>13.56127283103806</v>
       </c>
       <c r="L16">
-        <v>5.449386831686268</v>
+        <v>9.540494875100393</v>
       </c>
       <c r="M16">
-        <v>16.99337235324801</v>
+        <v>16.16073959103676</v>
       </c>
       <c r="N16">
-        <v>12.21876784841331</v>
+        <v>17.32358859663608</v>
       </c>
       <c r="O16">
-        <v>14.06171163873675</v>
+        <v>21.13203236132787</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.820154451020008</v>
+        <v>10.64088519236241</v>
       </c>
       <c r="D17">
-        <v>5.276998407855181</v>
+        <v>5.094475807297783</v>
       </c>
       <c r="E17">
-        <v>8.675189748707593</v>
+        <v>12.8807817096379</v>
       </c>
       <c r="F17">
-        <v>18.67922087310117</v>
+        <v>23.77224447385952</v>
       </c>
       <c r="G17">
-        <v>23.28148948296114</v>
+        <v>27.89376882890994</v>
       </c>
       <c r="H17">
-        <v>8.295892148139648</v>
+        <v>13.9556807032418</v>
       </c>
       <c r="I17">
-        <v>15.35711094095727</v>
+        <v>22.46712268239208</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.56994155004181</v>
+        <v>13.38203567275333</v>
       </c>
       <c r="L17">
-        <v>5.45511432973874</v>
+        <v>9.549293886618671</v>
       </c>
       <c r="M17">
-        <v>16.6521212975156</v>
+        <v>16.08027425295058</v>
       </c>
       <c r="N17">
-        <v>12.2317552236483</v>
+        <v>17.33282625828255</v>
       </c>
       <c r="O17">
-        <v>13.98467441573038</v>
+        <v>21.15004586578145</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.747515090532923</v>
+        <v>10.63070042616475</v>
       </c>
       <c r="D18">
-        <v>5.234502246260038</v>
+        <v>5.078898777420467</v>
       </c>
       <c r="E18">
-        <v>8.638889757203254</v>
+        <v>12.88247562361221</v>
       </c>
       <c r="F18">
-        <v>18.5523224940124</v>
+        <v>23.76895367781025</v>
       </c>
       <c r="G18">
-        <v>23.1045461894841</v>
+        <v>27.88883070217314</v>
       </c>
       <c r="H18">
-        <v>8.29352375230367</v>
+        <v>13.96448193034802</v>
       </c>
       <c r="I18">
-        <v>15.29485173125019</v>
+        <v>22.47457609385934</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.33072774350332</v>
+        <v>13.27786542776314</v>
       </c>
       <c r="L18">
-        <v>5.45871195368494</v>
+        <v>9.554468241616799</v>
       </c>
       <c r="M18">
-        <v>16.45279567733329</v>
+        <v>16.03398013629895</v>
       </c>
       <c r="N18">
-        <v>12.23963674982926</v>
+        <v>17.33830242312105</v>
       </c>
       <c r="O18">
-        <v>13.94179930831709</v>
+        <v>21.16088821117295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.722861140278134</v>
+        <v>10.62728251686472</v>
       </c>
       <c r="D19">
-        <v>5.220029653732959</v>
+        <v>5.073604800644433</v>
       </c>
       <c r="E19">
-        <v>8.626667618202973</v>
+        <v>12.88308755226658</v>
       </c>
       <c r="F19">
-        <v>18.50950920605207</v>
+        <v>23.76795115669028</v>
       </c>
       <c r="G19">
-        <v>23.04488961754537</v>
+        <v>27.88732177295031</v>
       </c>
       <c r="H19">
-        <v>8.292844654529222</v>
+        <v>13.96750154977813</v>
       </c>
       <c r="I19">
-        <v>15.27398459742925</v>
+        <v>22.47718609422509</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.24910270280887</v>
+        <v>13.24241289563009</v>
       </c>
       <c r="L19">
-        <v>5.459981513297239</v>
+        <v>9.556239671367033</v>
       </c>
       <c r="M19">
-        <v>16.38478313796488</v>
+        <v>16.01830486449327</v>
       </c>
       <c r="N19">
-        <v>12.24237520299778</v>
+        <v>17.34018455774319</v>
       </c>
       <c r="O19">
-        <v>13.92752726409085</v>
+        <v>21.16464186457059</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.833569609814983</v>
+        <v>10.64278458785403</v>
       </c>
       <c r="D20">
-        <v>5.284823389033541</v>
+        <v>5.097349274083229</v>
       </c>
       <c r="E20">
-        <v>8.681940440555689</v>
+        <v>12.88048643929577</v>
       </c>
       <c r="F20">
-        <v>18.70277852081683</v>
+        <v>23.77290656044795</v>
       </c>
       <c r="G20">
-        <v>23.31435701331651</v>
+        <v>27.89476019875345</v>
       </c>
       <c r="H20">
-        <v>8.296389219494801</v>
+        <v>13.95407064199788</v>
       </c>
       <c r="I20">
-        <v>15.36873483916029</v>
+        <v>22.46578427411203</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.61391488836988</v>
+        <v>13.40122798417929</v>
       </c>
       <c r="L20">
-        <v>5.454473085344245</v>
+        <v>9.548345482186853</v>
       </c>
       <c r="M20">
-        <v>16.68876317663024</v>
+        <v>16.08884153201238</v>
       </c>
       <c r="N20">
-        <v>12.23032991776961</v>
+        <v>17.33182603800437</v>
       </c>
       <c r="O20">
-        <v>13.99272628459719</v>
+        <v>21.14807845260511</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.201113084091345</v>
+        <v>10.69695712170326</v>
       </c>
       <c r="D21">
-        <v>5.49658587395976</v>
+        <v>5.175711620621206</v>
       </c>
       <c r="E21">
-        <v>8.872336724474655</v>
+        <v>12.87441554731386</v>
       </c>
       <c r="F21">
-        <v>19.36229110289326</v>
+        <v>23.79731408719365</v>
       </c>
       <c r="G21">
-        <v>24.23673011625934</v>
+        <v>27.93108629947428</v>
       </c>
       <c r="H21">
-        <v>8.317085680256907</v>
+        <v>13.91170620349581</v>
       </c>
       <c r="I21">
-        <v>15.70190866921233</v>
+        <v>22.43349160246418</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.79580075565255</v>
+        <v>13.92174960968952</v>
       </c>
       <c r="L21">
-        <v>5.439636812233251</v>
+        <v>9.523176473990022</v>
       </c>
       <c r="M21">
-        <v>17.67376499073485</v>
+        <v>16.32559058473059</v>
       </c>
       <c r="N21">
-        <v>12.19483510433002</v>
+        <v>17.30568744921288</v>
       </c>
       <c r="O21">
-        <v>14.22904376167423</v>
+        <v>21.09818486368362</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.437725297747406</v>
+        <v>10.73387866906767</v>
       </c>
       <c r="D22">
-        <v>5.63047249336833</v>
+        <v>5.225831561206126</v>
       </c>
       <c r="E22">
-        <v>9.000179766459887</v>
+        <v>12.87243310503557</v>
       </c>
       <c r="F22">
-        <v>19.80039142353501</v>
+        <v>23.81903146470341</v>
       </c>
       <c r="G22">
-        <v>24.85152029327772</v>
+        <v>27.96326019448707</v>
       </c>
       <c r="H22">
-        <v>8.337448479738773</v>
+        <v>13.88607864259338</v>
       </c>
       <c r="I22">
-        <v>15.93072193882488</v>
+        <v>22.41687536279984</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.53568436129803</v>
+        <v>14.25176479722157</v>
       </c>
       <c r="L22">
-        <v>5.432786205382897</v>
+        <v>9.507735485083698</v>
       </c>
       <c r="M22">
-        <v>18.29062431874238</v>
+        <v>16.47992425561837</v>
       </c>
       <c r="N22">
-        <v>12.1754825783228</v>
+        <v>17.29005054217405</v>
       </c>
       <c r="O22">
-        <v>14.39660495660102</v>
+        <v>21.06987815799397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.311788132332751</v>
+        <v>10.71403675387379</v>
       </c>
       <c r="D23">
-        <v>5.559432746228542</v>
+        <v>5.199184200839468</v>
       </c>
       <c r="E23">
-        <v>8.93164116249601</v>
+        <v>12.87330978036536</v>
       </c>
       <c r="F23">
-        <v>19.56595260775743</v>
+        <v>23.80691416704091</v>
       </c>
       <c r="G23">
-        <v>24.52234340720591</v>
+        <v>27.94531804884606</v>
       </c>
       <c r="H23">
-        <v>8.325936526771985</v>
+        <v>13.89956794592212</v>
       </c>
       <c r="I23">
-        <v>15.80758728012287</v>
+        <v>22.42533275248876</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.14376375462333</v>
+        <v>14.07658643430019</v>
       </c>
       <c r="L23">
-        <v>5.436174955893796</v>
+        <v>9.515884427586416</v>
       </c>
       <c r="M23">
-        <v>17.9638437223669</v>
+        <v>16.39760322008507</v>
       </c>
       <c r="N23">
-        <v>12.18545050909096</v>
+        <v>17.29826414656828</v>
       </c>
       <c r="O23">
-        <v>14.30595945492926</v>
+        <v>21.08459172687928</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.827505829644423</v>
+        <v>10.6419253365083</v>
       </c>
       <c r="D24">
-        <v>5.281287309394371</v>
+        <v>5.096050565508049</v>
       </c>
       <c r="E24">
-        <v>8.67888727155745</v>
+        <v>12.88061923282465</v>
       </c>
       <c r="F24">
-        <v>18.69212557495879</v>
+        <v>23.77260521219031</v>
       </c>
       <c r="G24">
-        <v>23.29949332858043</v>
+        <v>27.89430905245192</v>
       </c>
       <c r="H24">
-        <v>8.296162244174624</v>
+        <v>13.95479781886609</v>
       </c>
       <c r="I24">
-        <v>15.36347590224312</v>
+        <v>22.46638779104682</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.59404631538654</v>
+        <v>13.39255463576993</v>
       </c>
       <c r="L24">
-        <v>5.454762044108309</v>
+        <v>9.548773895463951</v>
       </c>
       <c r="M24">
-        <v>16.67220715307021</v>
+        <v>16.08496836636975</v>
       </c>
       <c r="N24">
-        <v>12.23097300817076</v>
+        <v>17.33227772261017</v>
       </c>
       <c r="O24">
-        <v>13.9890816324052</v>
+        <v>21.14896640596335</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.291762968877253</v>
+        <v>10.57090271588754</v>
       </c>
       <c r="D25">
-        <v>4.962504989550752</v>
+        <v>4.980363224255687</v>
       </c>
       <c r="E25">
-        <v>8.421430207069017</v>
+        <v>12.89704848111566</v>
       </c>
       <c r="F25">
-        <v>17.78322223344852</v>
+        <v>23.7604447799968</v>
       </c>
       <c r="G25">
-        <v>22.03650479482828</v>
+        <v>27.87556220238534</v>
       </c>
       <c r="H25">
-        <v>8.291533259038436</v>
+        <v>14.02320487499586</v>
       </c>
       <c r="I25">
-        <v>14.93176900934347</v>
+        <v>22.52990687186422</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.78197991004311</v>
+        <v>12.61396546508221</v>
       </c>
       <c r="L25">
-        <v>5.486328973005247</v>
+        <v>9.588586753256607</v>
       </c>
       <c r="M25">
-        <v>15.16236732273494</v>
+        <v>15.74743335551624</v>
       </c>
       <c r="N25">
-        <v>12.29571554975058</v>
+        <v>17.37519777076676</v>
       </c>
       <c r="O25">
-        <v>13.70185017256815</v>
+        <v>21.2368012660667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_69/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.52466335784678</v>
+        <v>7.888492944830842</v>
       </c>
       <c r="D2">
-        <v>4.891646116629243</v>
+        <v>4.712466048050565</v>
       </c>
       <c r="E2">
-        <v>12.91650814749353</v>
+        <v>8.245431052117114</v>
       </c>
       <c r="F2">
-        <v>23.77289540029187</v>
+        <v>17.14664686027014</v>
       </c>
       <c r="G2">
-        <v>27.89291468686337</v>
+        <v>21.15999272159684</v>
       </c>
       <c r="H2">
-        <v>14.08116195337141</v>
+        <v>8.309688205782601</v>
       </c>
       <c r="I2">
-        <v>22.59315978985907</v>
+        <v>14.65403104910231</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.00938450003745</v>
+        <v>17.32633704130452</v>
       </c>
       <c r="L2">
-        <v>9.621641979521394</v>
+        <v>5.518738733362879</v>
       </c>
       <c r="M2">
-        <v>15.50014742433758</v>
+        <v>13.9491646123189</v>
       </c>
       <c r="N2">
-        <v>17.41218633433042</v>
+        <v>12.3559393944273</v>
       </c>
       <c r="O2">
-        <v>21.31720966075225</v>
+        <v>13.53491482625926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.49721249161125</v>
+        <v>7.611374016498264</v>
       </c>
       <c r="D3">
-        <v>4.829468571961828</v>
+        <v>4.533994302490721</v>
       </c>
       <c r="E3">
-        <v>12.93429230434142</v>
+        <v>8.134831741646444</v>
       </c>
       <c r="F3">
-        <v>23.79467360175473</v>
+        <v>16.73749967703556</v>
       </c>
       <c r="G3">
-        <v>27.92403406839404</v>
+        <v>20.60191721023097</v>
       </c>
       <c r="H3">
-        <v>14.12517015780638</v>
+        <v>8.334400232078044</v>
       </c>
       <c r="I3">
-        <v>22.64627156695885</v>
+        <v>14.49031282021597</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.58244689848209</v>
+        <v>16.2640752928904</v>
       </c>
       <c r="L3">
-        <v>9.646383559982615</v>
+        <v>5.546069628655895</v>
       </c>
       <c r="M3">
-        <v>15.3341072183209</v>
+        <v>13.18215412755818</v>
       </c>
       <c r="N3">
-        <v>17.44062827374131</v>
+        <v>12.40416883287686</v>
       </c>
       <c r="O3">
-        <v>21.38147067390466</v>
+        <v>13.44811971458141</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.482307526135</v>
+        <v>7.439991811016705</v>
       </c>
       <c r="D4">
-        <v>4.790333010745694</v>
+        <v>4.420188796887508</v>
       </c>
       <c r="E4">
-        <v>12.94747906818017</v>
+        <v>8.071256054662701</v>
       </c>
       <c r="F4">
-        <v>23.81461402007158</v>
+        <v>16.49786684023344</v>
       </c>
       <c r="G4">
-        <v>27.95265079953594</v>
+        <v>20.2777807336861</v>
       </c>
       <c r="H4">
-        <v>14.15452310439193</v>
+        <v>8.355350531249503</v>
       </c>
       <c r="I4">
-        <v>22.68392084557971</v>
+        <v>14.40162628729512</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.31273934784887</v>
+        <v>15.57459434518816</v>
       </c>
       <c r="L4">
-        <v>9.662731065436111</v>
+        <v>5.565386508226867</v>
       </c>
       <c r="M4">
-        <v>15.2331823697794</v>
+        <v>12.70499691709812</v>
       </c>
       <c r="N4">
-        <v>17.4597610181148</v>
+        <v>12.43731077982041</v>
       </c>
       <c r="O4">
-        <v>21.42572757055265</v>
+        <v>13.40726221228535</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.47672875231164</v>
+        <v>7.369951370620692</v>
       </c>
       <c r="D5">
-        <v>4.774152602589344</v>
+        <v>4.372789642229562</v>
       </c>
       <c r="E5">
-        <v>12.95342288231462</v>
+        <v>8.046443787802419</v>
       </c>
       <c r="F5">
-        <v>23.82438933386036</v>
+        <v>16.40321188284007</v>
       </c>
       <c r="G5">
-        <v>27.96669646489411</v>
+        <v>20.1504555587611</v>
       </c>
       <c r="H5">
-        <v>14.16707075910436</v>
+        <v>8.365290174409775</v>
       </c>
       <c r="I5">
-        <v>22.70052785841297</v>
+        <v>14.36841694005753</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.20108452868128</v>
+        <v>15.28429580334453</v>
       </c>
       <c r="L5">
-        <v>9.66968378806164</v>
+        <v>5.573879886363691</v>
       </c>
       <c r="M5">
-        <v>15.19235191944257</v>
+        <v>12.50592629705785</v>
       </c>
       <c r="N5">
-        <v>17.4679782474775</v>
+        <v>12.45168557889242</v>
       </c>
       <c r="O5">
-        <v>21.44496701602618</v>
+        <v>13.3936496730254</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.47583243611702</v>
+        <v>7.358312412301676</v>
       </c>
       <c r="D6">
-        <v>4.771452081116545</v>
+        <v>4.3648585475037</v>
       </c>
       <c r="E6">
-        <v>12.95444427813117</v>
+        <v>8.042389996696349</v>
       </c>
       <c r="F6">
-        <v>23.8261120550749</v>
+        <v>16.38767777885415</v>
       </c>
       <c r="G6">
-        <v>27.9691724937095</v>
+        <v>20.12960363801185</v>
       </c>
       <c r="H6">
-        <v>14.16918967882703</v>
+        <v>8.367023872856485</v>
       </c>
       <c r="I6">
-        <v>22.70336174762009</v>
+        <v>14.36307808201102</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.18244368706256</v>
+        <v>15.23552991285517</v>
       </c>
       <c r="L6">
-        <v>9.670855865080798</v>
+        <v>5.575327290388964</v>
       </c>
       <c r="M6">
-        <v>15.18559115545239</v>
+        <v>12.4725977554786</v>
       </c>
       <c r="N6">
-        <v>17.4693681294929</v>
+        <v>12.45412448617877</v>
       </c>
       <c r="O6">
-        <v>21.44823437254957</v>
+        <v>13.39157000714876</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.48223027812724</v>
+        <v>7.439047884723291</v>
       </c>
       <c r="D7">
-        <v>4.790115725330892</v>
+        <v>4.419553639420771</v>
       </c>
       <c r="E7">
-        <v>12.94755692031872</v>
+        <v>8.070916987255385</v>
       </c>
       <c r="F7">
-        <v>23.81473917855493</v>
+        <v>16.49657805077648</v>
       </c>
       <c r="G7">
-        <v>27.95283058164085</v>
+        <v>20.27604417303523</v>
       </c>
       <c r="H7">
-        <v>14.15468995372257</v>
+        <v>8.355478969369658</v>
       </c>
       <c r="I7">
-        <v>22.68413969640591</v>
+        <v>14.40116661299972</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.31124038736671</v>
+        <v>15.57071699042199</v>
       </c>
       <c r="L7">
-        <v>9.662823653742285</v>
+        <v>5.565498556829499</v>
       </c>
       <c r="M7">
-        <v>15.23263046053361</v>
+        <v>12.70233062804091</v>
       </c>
       <c r="N7">
-        <v>17.45987013507124</v>
+        <v>12.4375011474118</v>
       </c>
       <c r="O7">
-        <v>21.42598216754453</v>
+        <v>13.40706645472286</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.51479658416424</v>
+        <v>7.793260104002594</v>
       </c>
       <c r="D8">
-        <v>4.870411292444039</v>
+        <v>4.651827593148714</v>
       </c>
       <c r="E8">
-        <v>12.92216959117151</v>
+        <v>8.206401535800389</v>
       </c>
       <c r="F8">
-        <v>23.77904012166252</v>
+        <v>17.00322191703965</v>
       </c>
       <c r="G8">
-        <v>27.90166721575271</v>
+        <v>20.96379259617731</v>
       </c>
       <c r="H8">
-        <v>14.09585188969384</v>
+        <v>8.316979360377628</v>
       </c>
       <c r="I8">
-        <v>22.61042567574009</v>
+        <v>14.59509967751052</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.86383541840723</v>
+        <v>16.96781666737386</v>
       </c>
       <c r="L8">
-        <v>9.629933100085966</v>
+        <v>5.527626366896983</v>
       </c>
       <c r="M8">
-        <v>15.44270802562152</v>
+        <v>13.67496599516541</v>
       </c>
       <c r="N8">
-        <v>17.42164709214461</v>
+        <v>12.37182526369841</v>
       </c>
       <c r="O8">
-        <v>21.33836896507698</v>
+        <v>13.50235523897478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.59390175427858</v>
+        <v>8.473796087645386</v>
       </c>
       <c r="D9">
-        <v>5.019901771545714</v>
+        <v>5.072329063554384</v>
       </c>
       <c r="E9">
-        <v>12.89037122430809</v>
+        <v>8.506080341508296</v>
       </c>
       <c r="F9">
-        <v>23.76121669521246</v>
+        <v>18.08457134036872</v>
       </c>
       <c r="G9">
-        <v>27.87703132899452</v>
+        <v>22.45400345717456</v>
       </c>
       <c r="H9">
-        <v>13.99898241660317</v>
+        <v>8.289603797038771</v>
       </c>
       <c r="I9">
-        <v>22.50594529229887</v>
+        <v>15.07090554540298</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.88137385761588</v>
+        <v>19.4112136435524</v>
       </c>
       <c r="L9">
-        <v>9.574595360273474</v>
+        <v>5.474223363897219</v>
       </c>
       <c r="M9">
-        <v>15.86104221844941</v>
+        <v>15.68665480130537</v>
       </c>
       <c r="N9">
-        <v>17.35990518478079</v>
+        <v>12.27189894945387</v>
       </c>
       <c r="O9">
-        <v>21.20476345246564</v>
+        <v>13.79150934544144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.66097790777072</v>
+        <v>8.960112278026594</v>
       </c>
       <c r="D10">
-        <v>5.124405649927796</v>
+        <v>5.3582903217574</v>
       </c>
       <c r="E10">
-        <v>12.87796373176681</v>
+        <v>8.746321705283938</v>
       </c>
       <c r="F10">
-        <v>23.77996548976623</v>
+        <v>18.92682010825815</v>
       </c>
       <c r="G10">
-        <v>27.90530075579042</v>
+        <v>23.62722809184869</v>
       </c>
       <c r="H10">
-        <v>13.93911168773473</v>
+        <v>8.30198340289679</v>
       </c>
       <c r="I10">
-        <v>22.45372859235041</v>
+        <v>15.48027664628733</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.58157689103201</v>
+        <v>21.02568567665102</v>
       </c>
       <c r="L10">
-        <v>9.539506207542777</v>
+        <v>5.44877486925426</v>
       </c>
       <c r="M10">
-        <v>16.1699185653233</v>
+        <v>17.03189935536495</v>
       </c>
       <c r="N10">
-        <v>17.32255657418909</v>
+        <v>12.21734226234778</v>
       </c>
       <c r="O10">
-        <v>21.13004218513985</v>
+        <v>14.07069776540724</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.69335758755514</v>
+        <v>9.177500619825887</v>
       </c>
       <c r="D11">
-        <v>5.170696836608597</v>
+        <v>5.48312525544566</v>
       </c>
       <c r="E11">
-        <v>12.87469314243035</v>
+        <v>8.859798901482295</v>
       </c>
       <c r="F11">
-        <v>23.79539607897403</v>
+        <v>19.31913351126468</v>
       </c>
       <c r="G11">
-        <v>27.92824053869426</v>
+        <v>24.17625009247363</v>
       </c>
       <c r="H11">
-        <v>13.91433132793281</v>
+        <v>8.315352071343812</v>
       </c>
       <c r="I11">
-        <v>22.43532258306356</v>
+        <v>15.67967468661888</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.88860513967742</v>
+        <v>21.72111599147467</v>
       </c>
       <c r="L11">
-        <v>9.524748594381991</v>
+        <v>5.440434623693374</v>
       </c>
       <c r="M11">
-        <v>16.310268235385</v>
+        <v>17.61150978137352</v>
       </c>
       <c r="N11">
-        <v>17.30729683350597</v>
+        <v>12.19691389215342</v>
       </c>
       <c r="O11">
-        <v>21.10116739299875</v>
+        <v>14.2129713000217</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.70587991657755</v>
+        <v>9.25920725034446</v>
       </c>
       <c r="D12">
-        <v>5.188039121814883</v>
+        <v>5.529624441509791</v>
       </c>
       <c r="E12">
-        <v>12.87379530523187</v>
+        <v>8.903356261965861</v>
       </c>
       <c r="F12">
-        <v>23.80222883741178</v>
+        <v>19.46891400468789</v>
       </c>
       <c r="G12">
-        <v>27.93837448875182</v>
+        <v>24.38621534242637</v>
       </c>
       <c r="H12">
-        <v>13.90530094499</v>
+        <v>8.321582959936185</v>
       </c>
       <c r="I12">
-        <v>22.42912270661884</v>
+        <v>15.75708089662055</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.00312989060431</v>
+        <v>21.97887398561403</v>
       </c>
       <c r="L12">
-        <v>9.519333228659745</v>
+        <v>5.437762808299983</v>
       </c>
       <c r="M12">
-        <v>16.36335096919728</v>
+        <v>17.82637812366904</v>
       </c>
       <c r="N12">
-        <v>17.30176646288933</v>
+        <v>12.18983558092709</v>
       </c>
       <c r="O12">
-        <v>21.09097099309565</v>
+        <v>14.26909388156878</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.70317153167761</v>
+        <v>9.241638437420171</v>
       </c>
       <c r="D13">
-        <v>5.184312594520231</v>
+        <v>5.519644648065284</v>
       </c>
       <c r="E13">
-        <v>12.87397353156841</v>
+        <v>8.893949606668189</v>
       </c>
       <c r="F13">
-        <v>23.80071332858346</v>
+        <v>19.43660332933305</v>
       </c>
       <c r="G13">
-        <v>27.93612765603498</v>
+        <v>24.34090594248809</v>
       </c>
       <c r="H13">
-        <v>13.90723007639628</v>
+        <v>8.320188171133172</v>
       </c>
       <c r="I13">
-        <v>22.43042369748801</v>
+        <v>15.74032562928015</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.97854359664792</v>
+        <v>21.92360922792202</v>
       </c>
       <c r="L13">
-        <v>9.520491832539356</v>
+        <v>5.438316252719114</v>
       </c>
       <c r="M13">
-        <v>16.3519221828081</v>
+        <v>17.78030716739947</v>
       </c>
       <c r="N13">
-        <v>17.30294650056604</v>
+        <v>12.19133034852524</v>
       </c>
       <c r="O13">
-        <v>21.093134122009</v>
+        <v>14.25690622298687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.6943826238279</v>
+        <v>9.18423529071902</v>
       </c>
       <c r="D14">
-        <v>5.172127391210435</v>
+        <v>5.486966357867605</v>
       </c>
       <c r="E14">
-        <v>12.87461245373931</v>
+        <v>8.863370742457368</v>
       </c>
       <c r="F14">
-        <v>23.79593840289729</v>
+        <v>19.33143213204115</v>
       </c>
       <c r="G14">
-        <v>27.92904528184711</v>
+        <v>24.19348348470575</v>
       </c>
       <c r="H14">
-        <v>13.91358130821502</v>
+        <v>8.315840953130579</v>
       </c>
       <c r="I14">
-        <v>22.43479707684194</v>
+        <v>15.68600488554229</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.89806249371398</v>
+        <v>21.74243370761973</v>
       </c>
       <c r="L14">
-        <v>9.524299602508824</v>
+        <v>5.440204939159118</v>
       </c>
       <c r="M14">
-        <v>16.31463691526716</v>
+        <v>17.62927946375756</v>
       </c>
       <c r="N14">
-        <v>17.30683687682188</v>
+        <v>12.19631822345603</v>
       </c>
       <c r="O14">
-        <v>21.10031372977041</v>
+        <v>14.21754324556568</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.68903290392849</v>
+        <v>9.148992627457195</v>
       </c>
       <c r="D15">
-        <v>5.164639002693479</v>
+        <v>5.466848798829058</v>
       </c>
       <c r="E15">
-        <v>12.87504815429512</v>
+        <v>8.844716127308685</v>
       </c>
       <c r="F15">
-        <v>23.79314238457747</v>
+        <v>19.26716780462791</v>
       </c>
       <c r="G15">
-        <v>27.92489548368283</v>
+        <v>24.1034476139092</v>
       </c>
       <c r="H15">
-        <v>13.91751765470897</v>
+        <v>8.313331980469428</v>
       </c>
       <c r="I15">
-        <v>22.43757621202204</v>
+        <v>15.65297914788495</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.84853648379106</v>
+        <v>21.63073172027999</v>
       </c>
       <c r="L15">
-        <v>9.526654498214285</v>
+        <v>5.441425803211319</v>
       </c>
       <c r="M15">
-        <v>16.29178897057372</v>
+        <v>17.53617036643401</v>
       </c>
       <c r="N15">
-        <v>17.30925214309209</v>
+        <v>12.19945986459104</v>
       </c>
       <c r="O15">
-        <v>21.10480759757263</v>
+        <v>14.19372625804863</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.65889874035339</v>
+        <v>8.945822709039545</v>
       </c>
       <c r="D16">
-        <v>5.121354630393463</v>
+        <v>5.350024794374483</v>
       </c>
       <c r="E16">
-        <v>12.87822518297599</v>
+        <v>8.738988613029747</v>
       </c>
       <c r="F16">
-        <v>23.77909571748006</v>
+        <v>18.90135742778617</v>
       </c>
       <c r="G16">
-        <v>27.90400426488951</v>
+        <v>23.591644210987</v>
       </c>
       <c r="H16">
-        <v>13.94078057690104</v>
+        <v>8.301270199495033</v>
       </c>
       <c r="I16">
-        <v>22.45503917762787</v>
+        <v>15.46751106370735</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.56127283103806</v>
+        <v>20.97945459383057</v>
       </c>
       <c r="L16">
-        <v>9.540494875100393</v>
+        <v>5.449386831686215</v>
       </c>
       <c r="M16">
-        <v>16.16073959103676</v>
+        <v>16.99337235324801</v>
       </c>
       <c r="N16">
-        <v>17.32358859663608</v>
+        <v>12.21876784841327</v>
       </c>
       <c r="O16">
-        <v>21.13203236132787</v>
+        <v>14.06171163873677</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.64088519236241</v>
+        <v>8.820154451020084</v>
       </c>
       <c r="D17">
-        <v>5.094475807297783</v>
+        <v>5.27699840785508</v>
       </c>
       <c r="E17">
-        <v>12.8807817096379</v>
+        <v>8.675189748707623</v>
       </c>
       <c r="F17">
-        <v>23.77224447385952</v>
+        <v>18.67922087310113</v>
       </c>
       <c r="G17">
-        <v>27.89376882890994</v>
+        <v>23.28148948296104</v>
       </c>
       <c r="H17">
-        <v>13.9556807032418</v>
+        <v>8.295892148139599</v>
       </c>
       <c r="I17">
-        <v>22.46712268239208</v>
+        <v>15.35711094095722</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.38203567275333</v>
+        <v>20.56994155004186</v>
       </c>
       <c r="L17">
-        <v>9.549293886618671</v>
+        <v>5.45511432973874</v>
       </c>
       <c r="M17">
-        <v>16.08027425295058</v>
+        <v>16.65212129751561</v>
       </c>
       <c r="N17">
-        <v>17.33282625828255</v>
+        <v>12.23175522364827</v>
       </c>
       <c r="O17">
-        <v>21.15004586578145</v>
+        <v>13.98467441573029</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.63070042616475</v>
+        <v>8.747515090532854</v>
       </c>
       <c r="D18">
-        <v>5.078898777420467</v>
+        <v>5.23450224625998</v>
       </c>
       <c r="E18">
-        <v>12.88247562361221</v>
+        <v>8.638889757203213</v>
       </c>
       <c r="F18">
-        <v>23.76895367781025</v>
+        <v>18.55232249401234</v>
       </c>
       <c r="G18">
-        <v>27.88883070217314</v>
+        <v>23.10454618948402</v>
       </c>
       <c r="H18">
-        <v>13.96448193034802</v>
+        <v>8.293523752303617</v>
       </c>
       <c r="I18">
-        <v>22.47457609385934</v>
+        <v>15.29485173125014</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.27786542776314</v>
+        <v>20.33072774350333</v>
       </c>
       <c r="L18">
-        <v>9.554468241616799</v>
+        <v>5.45871195368485</v>
       </c>
       <c r="M18">
-        <v>16.03398013629895</v>
+        <v>16.4527956773333</v>
       </c>
       <c r="N18">
-        <v>17.33830242312105</v>
+        <v>12.23963674982923</v>
       </c>
       <c r="O18">
-        <v>21.16088821117295</v>
+        <v>13.94179930831704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.62728251686472</v>
+        <v>8.722861140278161</v>
       </c>
       <c r="D19">
-        <v>5.073604800644433</v>
+        <v>5.220029653732877</v>
       </c>
       <c r="E19">
-        <v>12.88308755226658</v>
+        <v>8.626667618203001</v>
       </c>
       <c r="F19">
-        <v>23.76795115669028</v>
+        <v>18.50950920605206</v>
       </c>
       <c r="G19">
-        <v>27.88732177295031</v>
+        <v>23.04488961754539</v>
       </c>
       <c r="H19">
-        <v>13.96750154977813</v>
+        <v>8.292844654529159</v>
       </c>
       <c r="I19">
-        <v>22.47718609422509</v>
+        <v>15.27398459742924</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.24241289563009</v>
+        <v>20.24910270280888</v>
       </c>
       <c r="L19">
-        <v>9.556239671367033</v>
+        <v>5.459981513297268</v>
       </c>
       <c r="M19">
-        <v>16.01830486449327</v>
+        <v>16.38478313796487</v>
       </c>
       <c r="N19">
-        <v>17.34018455774319</v>
+        <v>12.24237520299778</v>
       </c>
       <c r="O19">
-        <v>21.16464186457059</v>
+        <v>13.92752726409083</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.64278458785403</v>
+        <v>8.833569609814941</v>
       </c>
       <c r="D20">
-        <v>5.097349274083229</v>
+        <v>5.284823389033577</v>
       </c>
       <c r="E20">
-        <v>12.88048643929577</v>
+        <v>8.681940440555678</v>
       </c>
       <c r="F20">
-        <v>23.77290656044795</v>
+        <v>18.70277852081682</v>
       </c>
       <c r="G20">
-        <v>27.89476019875345</v>
+        <v>23.31435701331651</v>
       </c>
       <c r="H20">
-        <v>13.95407064199788</v>
+        <v>8.296389219494902</v>
       </c>
       <c r="I20">
-        <v>22.46578427411203</v>
+        <v>15.36873483916031</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.40122798417929</v>
+        <v>20.61391488836987</v>
       </c>
       <c r="L20">
-        <v>9.548345482186853</v>
+        <v>5.45447308534424</v>
       </c>
       <c r="M20">
-        <v>16.08884153201238</v>
+        <v>16.68876317663023</v>
       </c>
       <c r="N20">
-        <v>17.33182603800437</v>
+        <v>12.23032991776964</v>
       </c>
       <c r="O20">
-        <v>21.14807845260511</v>
+        <v>13.99272628459722</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.69695712170326</v>
+        <v>9.201113084091414</v>
       </c>
       <c r="D21">
-        <v>5.175711620621206</v>
+        <v>5.496585873959766</v>
       </c>
       <c r="E21">
-        <v>12.87441554731386</v>
+        <v>8.872336724474664</v>
       </c>
       <c r="F21">
-        <v>23.79731408719365</v>
+        <v>19.36229110289329</v>
       </c>
       <c r="G21">
-        <v>27.93108629947428</v>
+        <v>24.2367301162594</v>
       </c>
       <c r="H21">
-        <v>13.91170620349581</v>
+        <v>8.317085680256824</v>
       </c>
       <c r="I21">
-        <v>22.43349160246418</v>
+        <v>15.70190866921236</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.92174960968952</v>
+        <v>21.79580075565259</v>
       </c>
       <c r="L21">
-        <v>9.523176473990022</v>
+        <v>5.439636812233275</v>
       </c>
       <c r="M21">
-        <v>16.32559058473059</v>
+        <v>17.67376499073487</v>
       </c>
       <c r="N21">
-        <v>17.30568744921288</v>
+        <v>12.19483510433001</v>
       </c>
       <c r="O21">
-        <v>21.09818486368362</v>
+        <v>14.22904376167423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.73387866906767</v>
+        <v>9.437725297747434</v>
       </c>
       <c r="D22">
-        <v>5.225831561206126</v>
+        <v>5.630472493368371</v>
       </c>
       <c r="E22">
-        <v>12.87243310503557</v>
+        <v>9.000179766459921</v>
       </c>
       <c r="F22">
-        <v>23.81903146470341</v>
+        <v>19.800391423535</v>
       </c>
       <c r="G22">
-        <v>27.96326019448707</v>
+        <v>24.85152029327772</v>
       </c>
       <c r="H22">
-        <v>13.88607864259338</v>
+        <v>8.337448479738773</v>
       </c>
       <c r="I22">
-        <v>22.41687536279984</v>
+        <v>15.93072193882489</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.25176479722157</v>
+        <v>22.53568436129806</v>
       </c>
       <c r="L22">
-        <v>9.507735485083698</v>
+        <v>5.432786205382901</v>
       </c>
       <c r="M22">
-        <v>16.47992425561837</v>
+        <v>18.29062431874236</v>
       </c>
       <c r="N22">
-        <v>17.29005054217405</v>
+        <v>12.17548257832277</v>
       </c>
       <c r="O22">
-        <v>21.06987815799397</v>
+        <v>14.39660495660101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.71403675387379</v>
+        <v>9.311788132332639</v>
       </c>
       <c r="D23">
-        <v>5.199184200839468</v>
+        <v>5.559432746228626</v>
       </c>
       <c r="E23">
-        <v>12.87330978036536</v>
+        <v>8.93164116249601</v>
       </c>
       <c r="F23">
-        <v>23.80691416704091</v>
+        <v>19.56595260775738</v>
       </c>
       <c r="G23">
-        <v>27.94531804884606</v>
+        <v>24.52234340720585</v>
       </c>
       <c r="H23">
-        <v>13.89956794592212</v>
+        <v>8.325936526771995</v>
       </c>
       <c r="I23">
-        <v>22.42533275248876</v>
+        <v>15.8075872801228</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.07658643430019</v>
+        <v>22.14376375462334</v>
       </c>
       <c r="L23">
-        <v>9.515884427586416</v>
+        <v>5.436174955893798</v>
       </c>
       <c r="M23">
-        <v>16.39760322008507</v>
+        <v>17.96384372236694</v>
       </c>
       <c r="N23">
-        <v>17.29826414656828</v>
+        <v>12.18545050909093</v>
       </c>
       <c r="O23">
-        <v>21.08459172687928</v>
+        <v>14.3059594549292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.6419253365083</v>
+        <v>8.827505829644316</v>
       </c>
       <c r="D24">
-        <v>5.096050565508049</v>
+        <v>5.281287309394421</v>
       </c>
       <c r="E24">
-        <v>12.88061923282465</v>
+        <v>8.678887271557468</v>
       </c>
       <c r="F24">
-        <v>23.77260521219031</v>
+        <v>18.69212557495872</v>
       </c>
       <c r="G24">
-        <v>27.89430905245192</v>
+        <v>23.29949332858039</v>
       </c>
       <c r="H24">
-        <v>13.95479781886609</v>
+        <v>8.296162244174624</v>
       </c>
       <c r="I24">
-        <v>22.46638779104682</v>
+        <v>15.36347590224306</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.39255463576993</v>
+        <v>20.59404631538655</v>
       </c>
       <c r="L24">
-        <v>9.548773895463951</v>
+        <v>5.45476204410837</v>
       </c>
       <c r="M24">
-        <v>16.08496836636975</v>
+        <v>16.67220715307022</v>
       </c>
       <c r="N24">
-        <v>17.33227772261017</v>
+        <v>12.23097300817073</v>
       </c>
       <c r="O24">
-        <v>21.14896640596335</v>
+        <v>13.98908163240515</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.57090271588754</v>
+        <v>8.291762968877329</v>
       </c>
       <c r="D25">
-        <v>4.980363224255687</v>
+        <v>4.962504989550642</v>
       </c>
       <c r="E25">
-        <v>12.89704848111566</v>
+        <v>8.421430207069015</v>
       </c>
       <c r="F25">
-        <v>23.7604447799968</v>
+        <v>17.78322223344854</v>
       </c>
       <c r="G25">
-        <v>27.87556220238534</v>
+        <v>22.03650479482823</v>
       </c>
       <c r="H25">
-        <v>14.02320487499586</v>
+        <v>8.291533259038545</v>
       </c>
       <c r="I25">
-        <v>22.52990687186422</v>
+        <v>14.93176900934352</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.61396546508221</v>
+        <v>18.78197991004309</v>
       </c>
       <c r="L25">
-        <v>9.588586753256607</v>
+        <v>5.486328973005188</v>
       </c>
       <c r="M25">
-        <v>15.74743335551624</v>
+        <v>15.16236732273494</v>
       </c>
       <c r="N25">
-        <v>17.37519777076676</v>
+        <v>12.29571554975058</v>
       </c>
       <c r="O25">
-        <v>21.2368012660667</v>
+        <v>13.70185017256815</v>
       </c>
     </row>
   </sheetData>
